--- a/_files/student_grades_g1.xlsx
+++ b/_files/student_grades_g1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\PROGRAMMING\___CSS Projects\0001- Website Moni\GRADE PLATFORM\GRADE FORMATS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BA7506-305B-43D0-9BE7-C888DDE22AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EDCD29F-F752-4477-86EA-5BFA1BD71943}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Grado 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="106">
   <si>
     <t>firstName</t>
   </si>
@@ -315,16 +314,52 @@
   </si>
   <si>
     <t>grado-1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Thomas al dibujar las regletas recuerda que cada regleta puede llevar solo 10 cuadritos porque ellas representan la decena.</t>
+  </si>
+  <si>
+    <t>Emi a veces podemos recibir la ayuda a la hora de escribir pero puedes involucrarte un poco más.</t>
+  </si>
+  <si>
+    <t>Emi puedes participar un poco más de la escritura del taller en tu cuaderno.</t>
+  </si>
+  <si>
+    <t>Emi recuerda que mantener el ritmo de escritura en casa te hará cada vez más ágil a la hora de escribir.</t>
+  </si>
+  <si>
+    <t>Emi es importante que escribas más porque esto te ayuda no solo con la agilidad si no también con el manejo dele espacio del cuaderno.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,13 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +527,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -524,6 +553,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -849,24 +884,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C651C-DE2B-48EF-855C-478E0DB36FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="14" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.2" customHeight="1">
+    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -913,13 +948,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1">
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>93</v>
@@ -954,14 +989,14 @@
       <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="25" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -974,29 +1009,41 @@
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1">
+      <c r="I3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1009,29 +1056,41 @@
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1">
+      <c r="I4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1044,29 +1103,39 @@
       <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="18" t="s">
+      <c r="G5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="16.8" customHeight="1">
+    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1079,29 +1148,39 @@
       <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1114,29 +1193,41 @@
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="L7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="N7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="O7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1149,29 +1240,41 @@
       <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" customHeight="1">
+      <c r="M8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1184,29 +1287,41 @@
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="L9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1">
+      <c r="M9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1219,29 +1334,41 @@
       <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="M10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1254,29 +1381,41 @@
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="L11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.399999999999999" customHeight="1">
+      <c r="O11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1289,29 +1428,41 @@
       <c r="D12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="L12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1">
+      <c r="M12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1324,29 +1475,41 @@
       <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1359,29 +1522,41 @@
       <c r="D14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1">
+      <c r="M14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1394,29 +1569,41 @@
       <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="M15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1429,29 +1616,41 @@
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1">
+      <c r="M16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1464,29 +1663,41 @@
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="J17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="L17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" customHeight="1">
+      <c r="O17" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1499,29 +1710,41 @@
       <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="F18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="K18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1534,29 +1757,41 @@
       <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="K19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1569,29 +1804,39 @@
       <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1601,32 +1846,36 @@
       <c r="C21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="J21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="20" t="s">
+      <c r="K21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="18" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1639,29 +1888,41 @@
       <c r="D22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="J22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="24" t="s">
+      <c r="K22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="M22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1674,29 +1935,41 @@
       <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="O23" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1709,29 +1982,41 @@
       <c r="D24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="L24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="M24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
@@ -1744,29 +2029,41 @@
       <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="20" t="s">
+      <c r="K25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="M25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1779,29 +2076,41 @@
       <c r="D26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="J26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="L26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="N26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="O26" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -1814,29 +2123,41 @@
       <c r="D27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="J27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="L27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="M27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -1846,32 +2167,44 @@
       <c r="C28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="D28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
@@ -1884,34 +2217,46 @@
       <c r="D29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="35" ht="14.4" customHeight="1"/>
-    <row r="36" ht="14.4" customHeight="1"/>
-    <row r="38" ht="14.4" customHeight="1"/>
-    <row r="41" ht="14.4" customHeight="1"/>
-    <row r="43" ht="14.4" customHeight="1"/>
-    <row r="49" ht="14.4" customHeight="1"/>
+      <c r="I29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
